--- a/biology/Botanique/Paphinia_rugosa_var._kalbreyeri/Paphinia_rugosa_var._kalbreyeri.xlsx
+++ b/biology/Botanique/Paphinia_rugosa_var._kalbreyeri/Paphinia_rugosa_var._kalbreyeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paphinia rugosa var. kalbreyeri Rchb.f., est une variété de plantes à fleurs de la famille des orchidée et de la sous-tribu des Stanhopeinae.
 Cette variété a été découverte en Colombie par Guillermo Kalbreyer. Reichenbach a décrit un spécimen ayant fleuri chez Veitch en 1880. Les couleurs de la fleur sont proches de celles de Paphinia cristata.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nom donné en l’honneur de Wilhelm A. Kalbreyer (1847-1912), collecteur de plante pour la Maison Veitch, en Afrique de l’Ouest (1877) puis Colombie (1877-1884) et inventeur de la variété.
 </t>
@@ -543,7 +557,9 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Aucune diagnose publiée.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition et biotope</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Colombie
 </t>
